--- a/data/BOC/FTD/FTDE/UAMVCSB_M_historical.xlsx
+++ b/data/BOC/FTD/FTDE/UAMVCSB_M_historical.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UAMVCSB_M" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,293 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
-  <si>
-    <t>2018-01</t>
-  </si>
-  <si>
-    <t>2018-02</t>
-  </si>
-  <si>
-    <t>2018-03</t>
-  </si>
-  <si>
-    <t>2018-04</t>
-  </si>
-  <si>
-    <t>2018-05</t>
-  </si>
-  <si>
-    <t>2018-06</t>
-  </si>
-  <si>
-    <t>2018-07</t>
-  </si>
-  <si>
-    <t>2018-08</t>
-  </si>
-  <si>
-    <t>2018-09</t>
-  </si>
-  <si>
-    <t>2018-10</t>
-  </si>
-  <si>
-    <t>2018-11</t>
-  </si>
-  <si>
-    <t>2018-12</t>
-  </si>
-  <si>
-    <t>2019-01</t>
-  </si>
-  <si>
-    <t>2019-02</t>
-  </si>
-  <si>
-    <t>2019-03</t>
-  </si>
-  <si>
-    <t>2019-04</t>
-  </si>
-  <si>
-    <t>2019-05</t>
-  </si>
-  <si>
-    <t>2019-06</t>
-  </si>
-  <si>
-    <t>2019-07</t>
-  </si>
-  <si>
-    <t>2019-08</t>
-  </si>
-  <si>
-    <t>2019-09</t>
-  </si>
-  <si>
-    <t>2019-10</t>
-  </si>
-  <si>
-    <t>2019-11</t>
-  </si>
-  <si>
-    <t>2019-12</t>
-  </si>
-  <si>
-    <t>2020-01</t>
-  </si>
-  <si>
-    <t>2020-02</t>
-  </si>
-  <si>
-    <t>2020-03</t>
-  </si>
-  <si>
-    <t>2020-04</t>
-  </si>
-  <si>
-    <t>2020-05</t>
-  </si>
-  <si>
-    <t>2020-06</t>
-  </si>
-  <si>
-    <t>2020-07</t>
-  </si>
-  <si>
-    <t>2020-08</t>
-  </si>
-  <si>
-    <t>2020-09</t>
-  </si>
-  <si>
-    <t>2020-10</t>
-  </si>
-  <si>
-    <t>2020-11</t>
-  </si>
-  <si>
-    <t>2020-12</t>
-  </si>
-  <si>
-    <t>2021-01</t>
-  </si>
-  <si>
-    <t>2021-02</t>
-  </si>
-  <si>
-    <t>2021-03</t>
-  </si>
-  <si>
-    <t>2021-04</t>
-  </si>
-  <si>
-    <t>2021-05</t>
-  </si>
-  <si>
-    <t>2021-06</t>
-  </si>
-  <si>
-    <t>2021-07</t>
-  </si>
-  <si>
-    <t>2021-08</t>
-  </si>
-  <si>
-    <t>2021-09</t>
-  </si>
-  <si>
-    <t>2021-10</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>order</t>
-  </si>
-  <si>
-    <t>UAMVEXAUS</t>
-  </si>
-  <si>
-    <t>Automotive Vehicles, Parts and Engines,  Exports,  Australia</t>
-  </si>
-  <si>
-    <t>UAMVEXBEL</t>
-  </si>
-  <si>
-    <t>Automotive Vehicles, Parts and Engines,  Exports,  Belgium</t>
-  </si>
-  <si>
-    <t>UAMVEXBRZ</t>
-  </si>
-  <si>
-    <t>Automotive Vehicles, Parts and Engines,  Exports,  Brazil</t>
-  </si>
-  <si>
-    <t>UAMVEXCAN</t>
-  </si>
-  <si>
-    <t>Automotive Vehicles, Parts and Engines,  Exports,  Canada</t>
-  </si>
-  <si>
-    <t>UAMVEXCHI</t>
-  </si>
-  <si>
-    <t>Automotive Vehicles, Parts and Engines,  Exports,  Chile</t>
-  </si>
-  <si>
-    <t>UAMVEXCHIN</t>
-  </si>
-  <si>
-    <t>Automotive Vehicles, Parts and Engines,  Exports,  China</t>
-  </si>
-  <si>
-    <t>UAMVEXCOL</t>
-  </si>
-  <si>
-    <t>Automotive Vehicles, Parts and Engines,  Exports,  Colombia</t>
-  </si>
-  <si>
-    <t>UAMVEXFRA</t>
-  </si>
-  <si>
-    <t>Automotive Vehicles, Parts and Engines,  Exports,  France</t>
-  </si>
-  <si>
-    <t>UAMVEXGER</t>
-  </si>
-  <si>
-    <t>Automotive Vehicles, Parts and Engines,  Exports,  Germany</t>
-  </si>
-  <si>
-    <t>UAMVEXHGK</t>
-  </si>
-  <si>
-    <t>Automotive Vehicles, Parts and Engines,  Exports,  Hong Kong</t>
-  </si>
-  <si>
-    <t>UAMVEXJAP</t>
-  </si>
-  <si>
-    <t>Automotive Vehicles, Parts and Engines,  Exports,  Japan</t>
-  </si>
-  <si>
-    <t>UAMVEXKOR</t>
-  </si>
-  <si>
-    <t>Automotive Vehicles, Parts and Engines,  Exports,  Korea, South</t>
-  </si>
-  <si>
-    <t>UAMVEXKUW</t>
-  </si>
-  <si>
-    <t>Automotive Vehicles, Parts and Engines,  Exports,  Kuwait</t>
-  </si>
-  <si>
-    <t>UAMVEXMEX</t>
-  </si>
-  <si>
-    <t>Automotive Vehicles, Parts and Engines,  Exports,  Mexico</t>
-  </si>
-  <si>
-    <t>UAMVEXNIG</t>
-  </si>
-  <si>
-    <t>Automotive Vehicles, Parts and Engines,  Exports,  Nigeria</t>
-  </si>
-  <si>
-    <t>UAMVEXRUS</t>
-  </si>
-  <si>
-    <t>Automotive Vehicles, Parts and Engines,  Exports,  Russia</t>
-  </si>
-  <si>
-    <t>UAMVEXSAU</t>
-  </si>
-  <si>
-    <t>Automotive Vehicles, Parts and Engines,  Exports,  Saudi Arabia</t>
-  </si>
-  <si>
-    <t>UAMVEXSIN</t>
-  </si>
-  <si>
-    <t>Automotive Vehicles, Parts and Engines,  Exports,  Singapore</t>
-  </si>
-  <si>
-    <t>UAMVEXSOA</t>
-  </si>
-  <si>
-    <t>Automotive Vehicles, Parts and Engines,  Exports,  South Africa</t>
-  </si>
-  <si>
-    <t>UAMVEXUAE</t>
-  </si>
-  <si>
-    <t>Automotive Vehicles, Parts and Engines,  Exports,  United Arab Emirates</t>
-  </si>
-  <si>
-    <t>UAMVEXUK</t>
-  </si>
-  <si>
-    <t>Automotive Vehicles, Parts and Engines,  Exports,  United Kingdom</t>
-  </si>
-  <si>
-    <t>UAMVEXVNZ</t>
-  </si>
-  <si>
-    <t>Automotive Vehicles, Parts and Engines,  Exports,  Venezuela</t>
-  </si>
-  <si>
-    <t>UAMVEXOTC</t>
-  </si>
-  <si>
-    <t>Automotive Vehicles, Parts and Engines,  Exports,  Other Countries</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -653,155 +366,253 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:49">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>47</v>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>2018-01</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>2018-02</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2018-03</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>2018-04</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2018-05</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>2018-06</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>2018-07</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>2018-08</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2018-09</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>2018-10</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>2018-11</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>2018-12</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>2019-01</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>2019-02</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>2019-03</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>2019-04</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>2019-05</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>2019-06</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>2019-07</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>2019-08</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>2019-09</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>2019-10</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>2019-11</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>2019-12</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>2020-01</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>2020-02</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>2020-03</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>2020-04</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>2020-05</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>2020-06</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>2020-07</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>2020-08</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>2020-09</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>2020-10</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>2020-11</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>2020-12</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>2021-01</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>2021-03</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>2021-04</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>2021-05</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>2021-06</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>2021-07</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>2021-08</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>2021-09</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>2021-10</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>Label</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>order</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:49">
-      <c r="A2" s="1" t="s">
-        <v>48</v>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>UAMVEXAUS</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>199</v>
@@ -941,14 +752,18 @@
       <c r="AU2" t="n">
         <v>283</v>
       </c>
-      <c r="AV2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW2" t="s"/>
+      <c r="AV2" t="inlineStr">
+        <is>
+          <t>Automotive Vehicles, Parts and Engines,  Exports,  Australia</t>
+        </is>
+      </c>
+      <c r="AW2" t="inlineStr"/>
     </row>
-    <row r="3" spans="1:49">
-      <c r="A3" s="1" t="s">
-        <v>50</v>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>UAMVEXBEL</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>68</v>
@@ -1088,14 +903,18 @@
       <c r="AU3" t="n">
         <v>198</v>
       </c>
-      <c r="AV3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AW3" t="s"/>
+      <c r="AV3" t="inlineStr">
+        <is>
+          <t>Automotive Vehicles, Parts and Engines,  Exports,  Belgium</t>
+        </is>
+      </c>
+      <c r="AW3" t="inlineStr"/>
     </row>
-    <row r="4" spans="1:49">
-      <c r="A4" s="1" t="s">
-        <v>52</v>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>UAMVEXBRZ</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>119</v>
@@ -1235,14 +1054,18 @@
       <c r="AU4" t="n">
         <v>145</v>
       </c>
-      <c r="AV4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AW4" t="s"/>
+      <c r="AV4" t="inlineStr">
+        <is>
+          <t>Automotive Vehicles, Parts and Engines,  Exports,  Brazil</t>
+        </is>
+      </c>
+      <c r="AW4" t="inlineStr"/>
     </row>
-    <row r="5" spans="1:49">
-      <c r="A5" s="1" t="s">
-        <v>54</v>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>UAMVEXCAN</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>4590</v>
@@ -1382,14 +1205,18 @@
       <c r="AU5" t="n">
         <v>4559</v>
       </c>
-      <c r="AV5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AW5" t="s"/>
+      <c r="AV5" t="inlineStr">
+        <is>
+          <t>Automotive Vehicles, Parts and Engines,  Exports,  Canada</t>
+        </is>
+      </c>
+      <c r="AW5" t="inlineStr"/>
     </row>
-    <row r="6" spans="1:49">
-      <c r="A6" s="1" t="s">
-        <v>56</v>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>UAMVEXCHI</t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>63</v>
@@ -1529,14 +1356,18 @@
       <c r="AU6" t="n">
         <v>104</v>
       </c>
-      <c r="AV6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW6" t="s"/>
+      <c r="AV6" t="inlineStr">
+        <is>
+          <t>Automotive Vehicles, Parts and Engines,  Exports,  Chile</t>
+        </is>
+      </c>
+      <c r="AW6" t="inlineStr"/>
     </row>
-    <row r="7" spans="1:49">
-      <c r="A7" s="1" t="s">
-        <v>58</v>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>UAMVEXCHIN</t>
+        </is>
       </c>
       <c r="B7" t="n">
         <v>729</v>
@@ -1676,14 +1507,18 @@
       <c r="AU7" t="n">
         <v>1044</v>
       </c>
-      <c r="AV7" t="s">
-        <v>59</v>
-      </c>
-      <c r="AW7" t="s"/>
+      <c r="AV7" t="inlineStr">
+        <is>
+          <t>Automotive Vehicles, Parts and Engines,  Exports,  China</t>
+        </is>
+      </c>
+      <c r="AW7" t="inlineStr"/>
     </row>
-    <row r="8" spans="1:49">
-      <c r="A8" s="1" t="s">
-        <v>60</v>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>UAMVEXCOL</t>
+        </is>
       </c>
       <c r="B8" t="n">
         <v>44</v>
@@ -1823,14 +1658,18 @@
       <c r="AU8" t="n">
         <v>56</v>
       </c>
-      <c r="AV8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AW8" t="s"/>
+      <c r="AV8" t="inlineStr">
+        <is>
+          <t>Automotive Vehicles, Parts and Engines,  Exports,  Colombia</t>
+        </is>
+      </c>
+      <c r="AW8" t="inlineStr"/>
     </row>
-    <row r="9" spans="1:49">
-      <c r="A9" s="1" t="s">
-        <v>62</v>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>UAMVEXFRA</t>
+        </is>
       </c>
       <c r="B9" t="n">
         <v>47</v>
@@ -1970,14 +1809,18 @@
       <c r="AU9" t="n">
         <v>54</v>
       </c>
-      <c r="AV9" t="s">
-        <v>63</v>
-      </c>
-      <c r="AW9" t="s"/>
+      <c r="AV9" t="inlineStr">
+        <is>
+          <t>Automotive Vehicles, Parts and Engines,  Exports,  France</t>
+        </is>
+      </c>
+      <c r="AW9" t="inlineStr"/>
     </row>
-    <row r="10" spans="1:49">
-      <c r="A10" s="1" t="s">
-        <v>64</v>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>UAMVEXGER</t>
+        </is>
       </c>
       <c r="B10" t="n">
         <v>554</v>
@@ -2117,14 +1960,18 @@
       <c r="AU10" t="n">
         <v>864</v>
       </c>
-      <c r="AV10" t="s">
-        <v>65</v>
-      </c>
-      <c r="AW10" t="s"/>
+      <c r="AV10" t="inlineStr">
+        <is>
+          <t>Automotive Vehicles, Parts and Engines,  Exports,  Germany</t>
+        </is>
+      </c>
+      <c r="AW10" t="inlineStr"/>
     </row>
-    <row r="11" spans="1:49">
-      <c r="A11" s="1" t="s">
-        <v>66</v>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>UAMVEXHGK</t>
+        </is>
       </c>
       <c r="B11" t="n">
         <v>73</v>
@@ -2264,14 +2111,18 @@
       <c r="AU11" t="n">
         <v>33</v>
       </c>
-      <c r="AV11" t="s">
-        <v>67</v>
-      </c>
-      <c r="AW11" t="s"/>
+      <c r="AV11" t="inlineStr">
+        <is>
+          <t>Automotive Vehicles, Parts and Engines,  Exports,  Hong Kong</t>
+        </is>
+      </c>
+      <c r="AW11" t="inlineStr"/>
     </row>
-    <row r="12" spans="1:49">
-      <c r="A12" s="1" t="s">
-        <v>68</v>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>UAMVEXJAP</t>
+        </is>
       </c>
       <c r="B12" t="n">
         <v>193</v>
@@ -2411,14 +2262,18 @@
       <c r="AU12" t="n">
         <v>200</v>
       </c>
-      <c r="AV12" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW12" t="s"/>
+      <c r="AV12" t="inlineStr">
+        <is>
+          <t>Automotive Vehicles, Parts and Engines,  Exports,  Japan</t>
+        </is>
+      </c>
+      <c r="AW12" t="inlineStr"/>
     </row>
-    <row r="13" spans="1:49">
-      <c r="A13" s="1" t="s">
-        <v>70</v>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>UAMVEXKOR</t>
+        </is>
       </c>
       <c r="B13" t="n">
         <v>187</v>
@@ -2558,14 +2413,18 @@
       <c r="AU13" t="n">
         <v>293</v>
       </c>
-      <c r="AV13" t="s">
-        <v>71</v>
-      </c>
-      <c r="AW13" t="s"/>
+      <c r="AV13" t="inlineStr">
+        <is>
+          <t>Automotive Vehicles, Parts and Engines,  Exports,  Korea, South</t>
+        </is>
+      </c>
+      <c r="AW13" t="inlineStr"/>
     </row>
-    <row r="14" spans="1:49">
-      <c r="A14" s="1" t="s">
-        <v>72</v>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>UAMVEXKUW</t>
+        </is>
       </c>
       <c r="B14" t="n">
         <v>62</v>
@@ -2705,14 +2564,18 @@
       <c r="AU14" t="n">
         <v>72</v>
       </c>
-      <c r="AV14" t="s">
-        <v>73</v>
-      </c>
-      <c r="AW14" t="s"/>
+      <c r="AV14" t="inlineStr">
+        <is>
+          <t>Automotive Vehicles, Parts and Engines,  Exports,  Kuwait</t>
+        </is>
+      </c>
+      <c r="AW14" t="inlineStr"/>
     </row>
-    <row r="15" spans="1:49">
-      <c r="A15" s="1" t="s">
-        <v>74</v>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>UAMVEXMEX</t>
+        </is>
       </c>
       <c r="B15" t="n">
         <v>2933</v>
@@ -2852,14 +2715,18 @@
       <c r="AU15" t="n">
         <v>2839</v>
       </c>
-      <c r="AV15" t="s">
-        <v>75</v>
-      </c>
-      <c r="AW15" t="s"/>
+      <c r="AV15" t="inlineStr">
+        <is>
+          <t>Automotive Vehicles, Parts and Engines,  Exports,  Mexico</t>
+        </is>
+      </c>
+      <c r="AW15" t="inlineStr"/>
     </row>
-    <row r="16" spans="1:49">
-      <c r="A16" s="1" t="s">
-        <v>76</v>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>UAMVEXNIG</t>
+        </is>
       </c>
       <c r="B16" t="n">
         <v>43</v>
@@ -2999,14 +2866,18 @@
       <c r="AU16" t="n">
         <v>100</v>
       </c>
-      <c r="AV16" t="s">
-        <v>77</v>
-      </c>
-      <c r="AW16" t="s"/>
+      <c r="AV16" t="inlineStr">
+        <is>
+          <t>Automotive Vehicles, Parts and Engines,  Exports,  Nigeria</t>
+        </is>
+      </c>
+      <c r="AW16" t="inlineStr"/>
     </row>
-    <row r="17" spans="1:49">
-      <c r="A17" s="1" t="s">
-        <v>78</v>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>UAMVEXRUS</t>
+        </is>
       </c>
       <c r="B17" t="n">
         <v>51</v>
@@ -3146,14 +3017,18 @@
       <c r="AU17" t="n">
         <v>115</v>
       </c>
-      <c r="AV17" t="s">
-        <v>79</v>
-      </c>
-      <c r="AW17" t="s"/>
+      <c r="AV17" t="inlineStr">
+        <is>
+          <t>Automotive Vehicles, Parts and Engines,  Exports,  Russia</t>
+        </is>
+      </c>
+      <c r="AW17" t="inlineStr"/>
     </row>
-    <row r="18" spans="1:49">
-      <c r="A18" s="1" t="s">
-        <v>80</v>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>UAMVEXSAU</t>
+        </is>
       </c>
       <c r="B18" t="n">
         <v>174</v>
@@ -3293,14 +3168,18 @@
       <c r="AU18" t="n">
         <v>157</v>
       </c>
-      <c r="AV18" t="s">
-        <v>81</v>
-      </c>
-      <c r="AW18" t="s"/>
+      <c r="AV18" t="inlineStr">
+        <is>
+          <t>Automotive Vehicles, Parts and Engines,  Exports,  Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="AW18" t="inlineStr"/>
     </row>
-    <row r="19" spans="1:49">
-      <c r="A19" s="1" t="s">
-        <v>82</v>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>UAMVEXSIN</t>
+        </is>
       </c>
       <c r="B19" t="n">
         <v>31</v>
@@ -3440,14 +3319,18 @@
       <c r="AU19" t="n">
         <v>32</v>
       </c>
-      <c r="AV19" t="s">
-        <v>83</v>
-      </c>
-      <c r="AW19" t="s"/>
+      <c r="AV19" t="inlineStr">
+        <is>
+          <t>Automotive Vehicles, Parts and Engines,  Exports,  Singapore</t>
+        </is>
+      </c>
+      <c r="AW19" t="inlineStr"/>
     </row>
-    <row r="20" spans="1:49">
-      <c r="A20" s="1" t="s">
-        <v>84</v>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>UAMVEXSOA</t>
+        </is>
       </c>
       <c r="B20" t="n">
         <v>43</v>
@@ -3587,14 +3470,18 @@
       <c r="AU20" t="n">
         <v>62</v>
       </c>
-      <c r="AV20" t="s">
-        <v>85</v>
-      </c>
-      <c r="AW20" t="s"/>
+      <c r="AV20" t="inlineStr">
+        <is>
+          <t>Automotive Vehicles, Parts and Engines,  Exports,  South Africa</t>
+        </is>
+      </c>
+      <c r="AW20" t="inlineStr"/>
     </row>
-    <row r="21" spans="1:49">
-      <c r="A21" s="1" t="s">
-        <v>86</v>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>UAMVEXUAE</t>
+        </is>
       </c>
       <c r="B21" t="n">
         <v>189</v>
@@ -3734,14 +3621,18 @@
       <c r="AU21" t="n">
         <v>224</v>
       </c>
-      <c r="AV21" t="s">
-        <v>87</v>
-      </c>
-      <c r="AW21" t="s"/>
+      <c r="AV21" t="inlineStr">
+        <is>
+          <t>Automotive Vehicles, Parts and Engines,  Exports,  United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="AW21" t="inlineStr"/>
     </row>
-    <row r="22" spans="1:49">
-      <c r="A22" s="1" t="s">
-        <v>88</v>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>UAMVEXUK</t>
+        </is>
       </c>
       <c r="B22" t="n">
         <v>271</v>
@@ -3881,14 +3772,18 @@
       <c r="AU22" t="n">
         <v>158</v>
       </c>
-      <c r="AV22" t="s">
-        <v>89</v>
-      </c>
-      <c r="AW22" t="s"/>
+      <c r="AV22" t="inlineStr">
+        <is>
+          <t>Automotive Vehicles, Parts and Engines,  Exports,  United Kingdom</t>
+        </is>
+      </c>
+      <c r="AW22" t="inlineStr"/>
     </row>
-    <row r="23" spans="1:49">
-      <c r="A23" s="1" t="s">
-        <v>90</v>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>UAMVEXVNZ</t>
+        </is>
       </c>
       <c r="B23" t="n">
         <v>5</v>
@@ -4028,14 +3923,18 @@
       <c r="AU23" t="n">
         <v>5</v>
       </c>
-      <c r="AV23" t="s">
-        <v>91</v>
-      </c>
-      <c r="AW23" t="s"/>
+      <c r="AV23" t="inlineStr">
+        <is>
+          <t>Automotive Vehicles, Parts and Engines,  Exports,  Venezuela</t>
+        </is>
+      </c>
+      <c r="AW23" t="inlineStr"/>
     </row>
-    <row r="24" spans="1:49">
-      <c r="A24" s="1" t="s">
-        <v>92</v>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>UAMVEXOTC</t>
+        </is>
       </c>
       <c r="B24" t="n">
         <v>1106</v>
@@ -4175,8 +4074,10 @@
       <c r="AU24" t="n">
         <v>1491</v>
       </c>
-      <c r="AV24" t="s">
-        <v>93</v>
+      <c r="AV24" t="inlineStr">
+        <is>
+          <t>Automotive Vehicles, Parts and Engines,  Exports,  Other Countries</t>
+        </is>
       </c>
       <c r="AW24" t="n">
         <v>134</v>

--- a/data/BOC/FTD/FTDE/UAMVCSB_M_historical.xlsx
+++ b/data/BOC/FTD/FTDE/UAMVCSB_M_historical.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AW24"/>
+  <dimension ref="A1:AZ24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -599,10 +599,25 @@
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
+          <t>2021-11</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>2021-12</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>2022-01</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>order</t>
         </is>
@@ -752,12 +767,21 @@
       <c r="AU2" t="n">
         <v>283</v>
       </c>
-      <c r="AV2" t="inlineStr">
+      <c r="AV2" t="n">
+        <v>338</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>322</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>217</v>
+      </c>
+      <c r="AY2" t="inlineStr">
         <is>
           <t>Automotive Vehicles, Parts and Engines,  Exports,  Australia</t>
         </is>
       </c>
-      <c r="AW2" t="inlineStr"/>
+      <c r="AZ2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -871,7 +895,7 @@
         <v>551</v>
       </c>
       <c r="AK3" t="n">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AL3" t="n">
         <v>493</v>
@@ -903,12 +927,21 @@
       <c r="AU3" t="n">
         <v>198</v>
       </c>
-      <c r="AV3" t="inlineStr">
+      <c r="AV3" t="n">
+        <v>145</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>130</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>117</v>
+      </c>
+      <c r="AY3" t="inlineStr">
         <is>
           <t>Automotive Vehicles, Parts and Engines,  Exports,  Belgium</t>
         </is>
       </c>
-      <c r="AW3" t="inlineStr"/>
+      <c r="AZ3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1054,12 +1087,21 @@
       <c r="AU4" t="n">
         <v>145</v>
       </c>
-      <c r="AV4" t="inlineStr">
+      <c r="AV4" t="n">
+        <v>103</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>88</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>94</v>
+      </c>
+      <c r="AY4" t="inlineStr">
         <is>
           <t>Automotive Vehicles, Parts and Engines,  Exports,  Brazil</t>
         </is>
       </c>
-      <c r="AW4" t="inlineStr"/>
+      <c r="AZ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1173,7 +1215,7 @@
         <v>4248</v>
       </c>
       <c r="AK5" t="n">
-        <v>4047</v>
+        <v>4072</v>
       </c>
       <c r="AL5" t="n">
         <v>3785</v>
@@ -1205,12 +1247,21 @@
       <c r="AU5" t="n">
         <v>4559</v>
       </c>
-      <c r="AV5" t="inlineStr">
+      <c r="AV5" t="n">
+        <v>4421</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>4239</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>3628</v>
+      </c>
+      <c r="AY5" t="inlineStr">
         <is>
           <t>Automotive Vehicles, Parts and Engines,  Exports,  Canada</t>
         </is>
       </c>
-      <c r="AW5" t="inlineStr"/>
+      <c r="AZ5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1356,12 +1407,21 @@
       <c r="AU6" t="n">
         <v>104</v>
       </c>
-      <c r="AV6" t="inlineStr">
+      <c r="AV6" t="n">
+        <v>96</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>98</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>104</v>
+      </c>
+      <c r="AY6" t="inlineStr">
         <is>
           <t>Automotive Vehicles, Parts and Engines,  Exports,  Chile</t>
         </is>
       </c>
-      <c r="AW6" t="inlineStr"/>
+      <c r="AZ6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1475,7 +1535,7 @@
         <v>1060</v>
       </c>
       <c r="AK7" t="n">
-        <v>866</v>
+        <v>872</v>
       </c>
       <c r="AL7" t="n">
         <v>571</v>
@@ -1507,12 +1567,21 @@
       <c r="AU7" t="n">
         <v>1044</v>
       </c>
-      <c r="AV7" t="inlineStr">
+      <c r="AV7" t="n">
+        <v>750</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>800</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>580</v>
+      </c>
+      <c r="AY7" t="inlineStr">
         <is>
           <t>Automotive Vehicles, Parts and Engines,  Exports,  China</t>
         </is>
       </c>
-      <c r="AW7" t="inlineStr"/>
+      <c r="AZ7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1658,12 +1727,21 @@
       <c r="AU8" t="n">
         <v>56</v>
       </c>
-      <c r="AV8" t="inlineStr">
+      <c r="AV8" t="n">
+        <v>49</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>32</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>30</v>
+      </c>
+      <c r="AY8" t="inlineStr">
         <is>
           <t>Automotive Vehicles, Parts and Engines,  Exports,  Colombia</t>
         </is>
       </c>
-      <c r="AW8" t="inlineStr"/>
+      <c r="AZ8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1809,12 +1887,21 @@
       <c r="AU9" t="n">
         <v>54</v>
       </c>
-      <c r="AV9" t="inlineStr">
+      <c r="AV9" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>57</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>59</v>
+      </c>
+      <c r="AY9" t="inlineStr">
         <is>
           <t>Automotive Vehicles, Parts and Engines,  Exports,  France</t>
         </is>
       </c>
-      <c r="AW9" t="inlineStr"/>
+      <c r="AZ9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1928,7 +2015,7 @@
         <v>681</v>
       </c>
       <c r="AK10" t="n">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="AL10" t="n">
         <v>595</v>
@@ -1960,12 +2047,21 @@
       <c r="AU10" t="n">
         <v>864</v>
       </c>
-      <c r="AV10" t="inlineStr">
+      <c r="AV10" t="n">
+        <v>928</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>747</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>687</v>
+      </c>
+      <c r="AY10" t="inlineStr">
         <is>
           <t>Automotive Vehicles, Parts and Engines,  Exports,  Germany</t>
         </is>
       </c>
-      <c r="AW10" t="inlineStr"/>
+      <c r="AZ10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -2111,12 +2207,21 @@
       <c r="AU11" t="n">
         <v>33</v>
       </c>
-      <c r="AV11" t="inlineStr">
+      <c r="AV11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>44</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>36</v>
+      </c>
+      <c r="AY11" t="inlineStr">
         <is>
           <t>Automotive Vehicles, Parts and Engines,  Exports,  Hong Kong</t>
         </is>
       </c>
-      <c r="AW11" t="inlineStr"/>
+      <c r="AZ11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -2262,12 +2367,21 @@
       <c r="AU12" t="n">
         <v>200</v>
       </c>
-      <c r="AV12" t="inlineStr">
+      <c r="AV12" t="n">
+        <v>149</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>167</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>112</v>
+      </c>
+      <c r="AY12" t="inlineStr">
         <is>
           <t>Automotive Vehicles, Parts and Engines,  Exports,  Japan</t>
         </is>
       </c>
-      <c r="AW12" t="inlineStr"/>
+      <c r="AZ12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -2413,12 +2527,21 @@
       <c r="AU13" t="n">
         <v>293</v>
       </c>
-      <c r="AV13" t="inlineStr">
+      <c r="AV13" t="n">
+        <v>236</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>215</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>296</v>
+      </c>
+      <c r="AY13" t="inlineStr">
         <is>
           <t>Automotive Vehicles, Parts and Engines,  Exports,  Korea, South</t>
         </is>
       </c>
-      <c r="AW13" t="inlineStr"/>
+      <c r="AZ13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -2564,12 +2687,21 @@
       <c r="AU14" t="n">
         <v>72</v>
       </c>
-      <c r="AV14" t="inlineStr">
+      <c r="AV14" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>94</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>44</v>
+      </c>
+      <c r="AY14" t="inlineStr">
         <is>
           <t>Automotive Vehicles, Parts and Engines,  Exports,  Kuwait</t>
         </is>
       </c>
-      <c r="AW14" t="inlineStr"/>
+      <c r="AZ14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -2683,7 +2815,7 @@
         <v>2672</v>
       </c>
       <c r="AK15" t="n">
-        <v>2669</v>
+        <v>2521</v>
       </c>
       <c r="AL15" t="n">
         <v>2410</v>
@@ -2715,12 +2847,21 @@
       <c r="AU15" t="n">
         <v>2839</v>
       </c>
-      <c r="AV15" t="inlineStr">
+      <c r="AV15" t="n">
+        <v>2928</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>2402</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>2717</v>
+      </c>
+      <c r="AY15" t="inlineStr">
         <is>
           <t>Automotive Vehicles, Parts and Engines,  Exports,  Mexico</t>
         </is>
       </c>
-      <c r="AW15" t="inlineStr"/>
+      <c r="AZ15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -2834,7 +2975,7 @@
         <v>107</v>
       </c>
       <c r="AK16" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AL16" t="n">
         <v>85</v>
@@ -2866,12 +3007,21 @@
       <c r="AU16" t="n">
         <v>100</v>
       </c>
-      <c r="AV16" t="inlineStr">
+      <c r="AV16" t="n">
+        <v>95</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>84</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>64</v>
+      </c>
+      <c r="AY16" t="inlineStr">
         <is>
           <t>Automotive Vehicles, Parts and Engines,  Exports,  Nigeria</t>
         </is>
       </c>
-      <c r="AW16" t="inlineStr"/>
+      <c r="AZ16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -3017,12 +3167,21 @@
       <c r="AU17" t="n">
         <v>115</v>
       </c>
-      <c r="AV17" t="inlineStr">
+      <c r="AV17" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>104</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>68</v>
+      </c>
+      <c r="AY17" t="inlineStr">
         <is>
           <t>Automotive Vehicles, Parts and Engines,  Exports,  Russia</t>
         </is>
       </c>
-      <c r="AW17" t="inlineStr"/>
+      <c r="AZ17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -3168,12 +3327,21 @@
       <c r="AU18" t="n">
         <v>157</v>
       </c>
-      <c r="AV18" t="inlineStr">
+      <c r="AV18" t="n">
+        <v>119</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>201</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AY18" t="inlineStr">
         <is>
           <t>Automotive Vehicles, Parts and Engines,  Exports,  Saudi Arabia</t>
         </is>
       </c>
-      <c r="AW18" t="inlineStr"/>
+      <c r="AZ18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -3319,12 +3487,21 @@
       <c r="AU19" t="n">
         <v>32</v>
       </c>
-      <c r="AV19" t="inlineStr">
+      <c r="AV19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>38</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>25</v>
+      </c>
+      <c r="AY19" t="inlineStr">
         <is>
           <t>Automotive Vehicles, Parts and Engines,  Exports,  Singapore</t>
         </is>
       </c>
-      <c r="AW19" t="inlineStr"/>
+      <c r="AZ19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -3470,12 +3647,21 @@
       <c r="AU20" t="n">
         <v>62</v>
       </c>
-      <c r="AV20" t="inlineStr">
+      <c r="AV20" t="n">
+        <v>64</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>67</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>70</v>
+      </c>
+      <c r="AY20" t="inlineStr">
         <is>
           <t>Automotive Vehicles, Parts and Engines,  Exports,  South Africa</t>
         </is>
       </c>
-      <c r="AW20" t="inlineStr"/>
+      <c r="AZ20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -3621,12 +3807,21 @@
       <c r="AU21" t="n">
         <v>224</v>
       </c>
-      <c r="AV21" t="inlineStr">
+      <c r="AV21" t="n">
+        <v>275</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>317</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>230</v>
+      </c>
+      <c r="AY21" t="inlineStr">
         <is>
           <t>Automotive Vehicles, Parts and Engines,  Exports,  United Arab Emirates</t>
         </is>
       </c>
-      <c r="AW21" t="inlineStr"/>
+      <c r="AZ21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -3772,12 +3967,21 @@
       <c r="AU22" t="n">
         <v>158</v>
       </c>
-      <c r="AV22" t="inlineStr">
+      <c r="AV22" t="n">
+        <v>111</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>123</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>126</v>
+      </c>
+      <c r="AY22" t="inlineStr">
         <is>
           <t>Automotive Vehicles, Parts and Engines,  Exports,  United Kingdom</t>
         </is>
       </c>
-      <c r="AW22" t="inlineStr"/>
+      <c r="AZ22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -3923,12 +4127,21 @@
       <c r="AU23" t="n">
         <v>5</v>
       </c>
-      <c r="AV23" t="inlineStr">
+      <c r="AV23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY23" t="inlineStr">
         <is>
           <t>Automotive Vehicles, Parts and Engines,  Exports,  Venezuela</t>
         </is>
       </c>
-      <c r="AW23" t="inlineStr"/>
+      <c r="AZ23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -4042,7 +4255,7 @@
         <v>1474</v>
       </c>
       <c r="AK24" t="n">
-        <v>1432</v>
+        <v>1442</v>
       </c>
       <c r="AL24" t="n">
         <v>1264</v>
@@ -4074,12 +4287,21 @@
       <c r="AU24" t="n">
         <v>1491</v>
       </c>
-      <c r="AV24" t="inlineStr">
+      <c r="AV24" t="n">
+        <v>1331</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>1381</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>1178</v>
+      </c>
+      <c r="AY24" t="inlineStr">
         <is>
           <t>Automotive Vehicles, Parts and Engines,  Exports,  Other Countries</t>
         </is>
       </c>
-      <c r="AW24" t="n">
+      <c r="AZ24" t="n">
         <v>134</v>
       </c>
     </row>
